--- a/inst/extdata/ExampleDataFile.xlsx
+++ b/inst/extdata/ExampleDataFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C4713726-B32D-4D13-8736-EC0BC95F18ED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4830BE8-2113-4DBE-BBFA-8F3DED6E57FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15090" windowWidth="23895" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExampleDataFile" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,18 @@
     <definedName name="_Export_R_20180303">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ExampleDataFile!$A$1:$AO$351</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1193,9 +1204,6 @@
     <t>Long_Lived</t>
   </si>
   <si>
-    <t>Site_Type</t>
-  </si>
-  <si>
     <t>Life_Cycle</t>
   </si>
   <si>
@@ -1236,6 +1244,9 @@
   </si>
   <si>
     <t>N_Taxa_orig</t>
+  </si>
+  <si>
+    <t>INDEX_CLASS</t>
   </si>
 </sst>
 </file>
@@ -1697,7 +1708,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>5</v>
@@ -1796,7 +1807,7 @@
         <v>19</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>20</v>
@@ -1820,7 +1831,7 @@
         <v>26</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z1" s="6" t="s">
         <v>375</v>
@@ -1832,7 +1843,7 @@
         <v>380</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>10</v>
@@ -1868,18 +1879,18 @@
         <v>388</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D2" s="12">
         <v>44.084184375</v>
@@ -1932,7 +1943,7 @@
         <v>58</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>386</v>
@@ -1984,13 +1995,13 @@
     </row>
     <row r="3" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D3" s="12">
         <v>44.084184375</v>
@@ -2095,13 +2106,13 @@
     </row>
     <row r="4" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D4" s="12">
         <v>44.084184375</v>
@@ -2156,7 +2167,7 @@
         <v>33</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>386</v>
@@ -2208,13 +2219,13 @@
     </row>
     <row r="5" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D5" s="12">
         <v>44.084184375</v>
@@ -2223,7 +2234,7 @@
         <v>38</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G5" s="7">
         <v>2</v>
@@ -2240,14 +2251,14 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -2261,7 +2272,7 @@
         <v>67</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>386</v>
@@ -2313,13 +2324,13 @@
     </row>
     <row r="6" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D6" s="12">
         <v>44.084184375</v>
@@ -2370,7 +2381,7 @@
         <v>58</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y6" s="3" t="s">
         <v>386</v>
@@ -2422,13 +2433,13 @@
     </row>
     <row r="7" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D7" s="12">
         <v>44.084184375</v>
@@ -2481,7 +2492,7 @@
         <v>67</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y7" s="3" t="s">
         <v>386</v>
@@ -2533,13 +2544,13 @@
     </row>
     <row r="8" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D8" s="12">
         <v>44.084184375</v>
@@ -2644,13 +2655,13 @@
     </row>
     <row r="9" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D9" s="12">
         <v>44.084184375</v>
@@ -2755,13 +2766,13 @@
     </row>
     <row r="10" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D10" s="12">
         <v>44.084184375</v>
@@ -2864,13 +2875,13 @@
     </row>
     <row r="11" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D11" s="12">
         <v>44.084184375</v>
@@ -2921,7 +2932,7 @@
         <v>33</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y11" s="3" t="s">
         <v>386</v>
@@ -2973,13 +2984,13 @@
     </row>
     <row r="12" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D12" s="12">
         <v>44.084184375</v>
@@ -3032,7 +3043,7 @@
         <v>33</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y12" s="3" t="s">
         <v>386</v>
@@ -3084,13 +3095,13 @@
     </row>
     <row r="13" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D13" s="12">
         <v>44.084184375</v>
@@ -3195,13 +3206,13 @@
     </row>
     <row r="14" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D14" s="12">
         <v>44.084184375</v>
@@ -3250,7 +3261,7 @@
         <v>58</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>386</v>
@@ -3302,13 +3313,13 @@
     </row>
     <row r="15" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D15" s="12">
         <v>44.084184375</v>
@@ -3359,7 +3370,7 @@
         <v>58</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>386</v>
@@ -3411,13 +3422,13 @@
     </row>
     <row r="16" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D16" s="12">
         <v>44.084184375</v>
@@ -3472,7 +3483,7 @@
         <v>47</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y16" s="3" t="s">
         <v>386</v>
@@ -3524,13 +3535,13 @@
     </row>
     <row r="17" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D17" s="12">
         <v>44.084184375</v>
@@ -3585,7 +3596,7 @@
         <v>33</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y17" s="3" t="s">
         <v>386</v>
@@ -3637,13 +3648,13 @@
     </row>
     <row r="18" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D18" s="12">
         <v>44.084184375</v>
@@ -3694,7 +3705,7 @@
         <v>33</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y18" s="3" t="s">
         <v>386</v>
@@ -3746,13 +3757,13 @@
     </row>
     <row r="19" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D19" s="12">
         <v>44.084184375</v>
@@ -3857,13 +3868,13 @@
     </row>
     <row r="20" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D20" s="12">
         <v>44.084184375</v>
@@ -3916,7 +3927,7 @@
         <v>33</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>386</v>
@@ -3968,13 +3979,13 @@
     </row>
     <row r="21" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D21" s="12">
         <v>44.084184375</v>
@@ -4023,7 +4034,7 @@
         <v>33</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y21" s="3" t="s">
         <v>386</v>
@@ -4075,13 +4086,13 @@
     </row>
     <row r="22" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D22" s="12">
         <v>44.084184375</v>
@@ -4132,7 +4143,7 @@
         <v>50</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>386</v>
@@ -4184,13 +4195,13 @@
     </row>
     <row r="23" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D23" s="12">
         <v>44.084184375</v>
@@ -4239,7 +4250,7 @@
         <v>50</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y23" s="3" t="s">
         <v>386</v>
@@ -4291,13 +4302,13 @@
     </row>
     <row r="24" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D24" s="12">
         <v>44.084184375</v>
@@ -4348,7 +4359,7 @@
         <v>58</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y24" s="3" t="s">
         <v>386</v>
@@ -4400,13 +4411,13 @@
     </row>
     <row r="25" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D25" s="12">
         <v>44.084184375</v>
@@ -4457,7 +4468,7 @@
         <v>58</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y25" s="3" t="s">
         <v>386</v>
@@ -4509,13 +4520,13 @@
     </row>
     <row r="26" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D26" s="12">
         <v>44.084184375</v>
@@ -4622,13 +4633,13 @@
     </row>
     <row r="27" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D27" s="12">
         <v>44.084184375</v>
@@ -4677,7 +4688,7 @@
         <v>33</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y27" s="3" t="s">
         <v>386</v>
@@ -4729,13 +4740,13 @@
     </row>
     <row r="28" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D28" s="12">
         <v>44.084184375</v>
@@ -4788,7 +4799,7 @@
         <v>33</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y28" s="3" t="s">
         <v>386</v>
@@ -4840,13 +4851,13 @@
     </row>
     <row r="29" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D29" s="12">
         <v>44.084184375</v>
@@ -4897,7 +4908,7 @@
         <v>38</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>386</v>
@@ -4949,13 +4960,13 @@
     </row>
     <row r="30" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D30" s="12">
         <v>44.084184375</v>
@@ -5062,13 +5073,13 @@
     </row>
     <row r="31" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D31" s="12">
         <v>1.7914749999999999</v>
@@ -5175,13 +5186,13 @@
     </row>
     <row r="32" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D32" s="12">
         <v>1.7914749999999999</v>
@@ -5290,13 +5301,13 @@
     </row>
     <row r="33" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D33" s="12">
         <v>1.7914749999999999</v>
@@ -5349,7 +5360,7 @@
         <v>58</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y33" s="3" t="s">
         <v>386</v>
@@ -5401,13 +5412,13 @@
     </row>
     <row r="34" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D34" s="12">
         <v>1.7914749999999999</v>
@@ -5514,13 +5525,13 @@
     </row>
     <row r="35" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D35" s="12">
         <v>1.7914749999999999</v>
@@ -5625,13 +5636,13 @@
     </row>
     <row r="36" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D36" s="12">
         <v>1.7914749999999999</v>
@@ -5736,13 +5747,13 @@
     </row>
     <row r="37" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D37" s="12">
         <v>1.7914749999999999</v>
@@ -5797,7 +5808,7 @@
         <v>58</v>
       </c>
       <c r="X37" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y37" s="3" t="s">
         <v>386</v>
@@ -5849,13 +5860,13 @@
     </row>
     <row r="38" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D38" s="12">
         <v>1.7914749999999999</v>
@@ -5962,13 +5973,13 @@
     </row>
     <row r="39" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D39" s="12">
         <v>1.7914749999999999</v>
@@ -6021,7 +6032,7 @@
         <v>33</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y39" s="3" t="s">
         <v>386</v>
@@ -6073,13 +6084,13 @@
     </row>
     <row r="40" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D40" s="12">
         <v>1.7914749999999999</v>
@@ -6186,13 +6197,13 @@
     </row>
     <row r="41" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D41" s="12">
         <v>1.7914749999999999</v>
@@ -6299,13 +6310,13 @@
     </row>
     <row r="42" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D42" s="12">
         <v>1.7914749999999999</v>
@@ -6414,13 +6425,13 @@
     </row>
     <row r="43" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D43" s="12">
         <v>1.7914749999999999</v>
@@ -6529,13 +6540,13 @@
     </row>
     <row r="44" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D44" s="12">
         <v>1.7914749999999999</v>
@@ -6640,13 +6651,13 @@
     </row>
     <row r="45" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D45" s="12">
         <v>1.7914749999999999</v>
@@ -6699,7 +6710,7 @@
         <v>50</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>386</v>
@@ -6751,13 +6762,13 @@
     </row>
     <row r="46" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D46" s="12">
         <v>1.7914749999999999</v>
@@ -6862,13 +6873,13 @@
     </row>
     <row r="47" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D47" s="12">
         <v>1.7914749999999999</v>
@@ -6921,7 +6932,7 @@
         <v>47</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>386</v>
@@ -6973,13 +6984,13 @@
     </row>
     <row r="48" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D48" s="12">
         <v>1.7914749999999999</v>
@@ -7084,13 +7095,13 @@
     </row>
     <row r="49" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D49" s="12">
         <v>1.7914749999999999</v>
@@ -7199,13 +7210,13 @@
     </row>
     <row r="50" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D50" s="12">
         <v>1.7914749999999999</v>
@@ -7312,13 +7323,13 @@
     </row>
     <row r="51" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D51" s="12">
         <v>1.7914749999999999</v>
@@ -7373,7 +7384,7 @@
         <v>58</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y51" s="3" t="s">
         <v>386</v>
@@ -7425,13 +7436,13 @@
     </row>
     <row r="52" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D52" s="12">
         <v>1.7914749999999999</v>
@@ -7482,7 +7493,7 @@
         <v>33</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>386</v>
@@ -7534,13 +7545,13 @@
     </row>
     <row r="53" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D53" s="12">
         <v>1.7914749999999999</v>
@@ -7645,13 +7656,13 @@
     </row>
     <row r="54" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D54" s="12">
         <v>1.7914749999999999</v>
@@ -7704,7 +7715,7 @@
         <v>33</v>
       </c>
       <c r="X54" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y54" s="3" t="s">
         <v>386</v>
@@ -7756,13 +7767,13 @@
     </row>
     <row r="55" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D55" s="12">
         <v>1.7914749999999999</v>
@@ -7815,7 +7826,7 @@
         <v>33</v>
       </c>
       <c r="X55" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y55" s="3" t="s">
         <v>386</v>
@@ -7867,13 +7878,13 @@
     </row>
     <row r="56" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D56" s="12">
         <v>1.7914749999999999</v>
@@ -7926,7 +7937,7 @@
         <v>33</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y56" s="3" t="s">
         <v>386</v>
@@ -7978,13 +7989,13 @@
     </row>
     <row r="57" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D57" s="12">
         <v>1.7914749999999999</v>
@@ -8089,13 +8100,13 @@
     </row>
     <row r="58" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D58" s="12">
         <v>1.7914749999999999</v>
@@ -8202,13 +8213,13 @@
     </row>
     <row r="59" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D59" s="12">
         <v>1.7914749999999999</v>
@@ -8315,13 +8326,13 @@
     </row>
     <row r="60" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D60" s="12">
         <v>1.7914749999999999</v>
@@ -8372,7 +8383,7 @@
         <v>67</v>
       </c>
       <c r="X60" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y60" s="3" t="s">
         <v>386</v>
@@ -8424,13 +8435,13 @@
     </row>
     <row r="61" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D61" s="12">
         <v>1.7914749999999999</v>
@@ -8483,7 +8494,7 @@
         <v>58</v>
       </c>
       <c r="X61" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y61" s="3" t="s">
         <v>386</v>
@@ -8535,13 +8546,13 @@
     </row>
     <row r="62" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D62" s="12">
         <v>1.7914749999999999</v>
@@ -8592,7 +8603,7 @@
         <v>58</v>
       </c>
       <c r="X62" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y62" s="3" t="s">
         <v>386</v>
@@ -8644,13 +8655,13 @@
     </row>
     <row r="63" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D63" s="12">
         <v>1.7914749999999999</v>
@@ -8757,13 +8768,13 @@
     </row>
     <row r="64" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D64" s="12">
         <v>1.7914749999999999</v>
@@ -8814,7 +8825,7 @@
         <v>38</v>
       </c>
       <c r="X64" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y64" s="3" t="s">
         <v>386</v>
@@ -8866,13 +8877,13 @@
     </row>
     <row r="65" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D65" s="12">
         <v>1.7914749999999999</v>
@@ -8977,13 +8988,13 @@
     </row>
     <row r="66" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D66" s="12">
         <v>1.7914749999999999</v>
@@ -9090,13 +9101,13 @@
     </row>
     <row r="67" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D67" s="12">
         <v>1.7914749999999999</v>
@@ -9151,7 +9162,7 @@
         <v>47</v>
       </c>
       <c r="X67" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y67" s="3" t="s">
         <v>386</v>
@@ -9203,13 +9214,13 @@
     </row>
     <row r="68" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D68" s="12">
         <v>1.7914749999999999</v>
@@ -9316,13 +9327,13 @@
     </row>
     <row r="69" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D69" s="12">
         <v>9.6137343749999999</v>
@@ -9425,13 +9436,13 @@
     </row>
     <row r="70" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D70" s="12">
         <v>9.6137343749999999</v>
@@ -9538,13 +9549,13 @@
     </row>
     <row r="71" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D71" s="12">
         <v>9.6137343749999999</v>
@@ -9651,13 +9662,13 @@
     </row>
     <row r="72" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D72" s="12">
         <v>9.6137343749999999</v>
@@ -9762,13 +9773,13 @@
     </row>
     <row r="73" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D73" s="12">
         <v>9.6137343749999999</v>
@@ -9823,7 +9834,7 @@
         <v>33</v>
       </c>
       <c r="X73" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y73" s="3" t="s">
         <v>386</v>
@@ -9875,13 +9886,13 @@
     </row>
     <row r="74" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D74" s="12">
         <v>9.6137343749999999</v>
@@ -9984,13 +9995,13 @@
     </row>
     <row r="75" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D75" s="12">
         <v>9.6137343749999999</v>
@@ -9999,7 +10010,7 @@
         <v>204</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G75" s="7">
         <v>1</v>
@@ -10020,7 +10031,7 @@
         <v>195</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N75" s="3"/>
       <c r="O75" s="3" t="s">
@@ -10041,7 +10052,7 @@
         <v>33</v>
       </c>
       <c r="X75" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y75" s="3" t="s">
         <v>386</v>
@@ -10093,13 +10104,13 @@
     </row>
     <row r="76" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D76" s="12">
         <v>9.6137343749999999</v>
@@ -10150,7 +10161,7 @@
         <v>50</v>
       </c>
       <c r="X76" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y76" s="3" t="s">
         <v>386</v>
@@ -10202,13 +10213,13 @@
     </row>
     <row r="77" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D77" s="12">
         <v>9.6137343749999999</v>
@@ -10315,13 +10326,13 @@
     </row>
     <row r="78" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D78" s="12">
         <v>9.6137343749999999</v>
@@ -10374,7 +10385,7 @@
         <v>50</v>
       </c>
       <c r="X78" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y78" s="3" t="s">
         <v>386</v>
@@ -10426,13 +10437,13 @@
     </row>
     <row r="79" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D79" s="12">
         <v>9.6137343749999999</v>
@@ -10483,7 +10494,7 @@
         <v>33</v>
       </c>
       <c r="X79" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y79" s="3" t="s">
         <v>386</v>
@@ -10535,13 +10546,13 @@
     </row>
     <row r="80" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D80" s="12">
         <v>9.6137343749999999</v>
@@ -10594,7 +10605,7 @@
         <v>33</v>
       </c>
       <c r="X80" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y80" s="3" t="s">
         <v>386</v>
@@ -10646,13 +10657,13 @@
     </row>
     <row r="81" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D81" s="12">
         <v>9.6137343749999999</v>
@@ -10705,7 +10716,7 @@
         <v>33</v>
       </c>
       <c r="X81" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y81" s="3" t="s">
         <v>386</v>
@@ -10757,13 +10768,13 @@
     </row>
     <row r="82" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D82" s="12">
         <v>9.6137343749999999</v>
@@ -10870,13 +10881,13 @@
     </row>
     <row r="83" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D83" s="12">
         <v>9.6137343749999999</v>
@@ -10927,7 +10938,7 @@
         <v>67</v>
       </c>
       <c r="X83" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>386</v>
@@ -10979,13 +10990,13 @@
     </row>
     <row r="84" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D84" s="12">
         <v>9.6137343749999999</v>
@@ -11036,7 +11047,7 @@
         <v>58</v>
       </c>
       <c r="X84" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y84" s="3" t="s">
         <v>386</v>
@@ -11088,13 +11099,13 @@
     </row>
     <row r="85" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D85" s="12">
         <v>9.6137343749999999</v>
@@ -11201,13 +11212,13 @@
     </row>
     <row r="86" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D86" s="12">
         <v>9.6137343749999999</v>
@@ -11258,7 +11269,7 @@
         <v>38</v>
       </c>
       <c r="X86" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y86" s="3" t="s">
         <v>386</v>
@@ -11310,13 +11321,13 @@
     </row>
     <row r="87" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D87" s="12">
         <v>3.0617234375</v>
@@ -11419,13 +11430,13 @@
     </row>
     <row r="88" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D88" s="12">
         <v>3.0617234375</v>
@@ -11532,13 +11543,13 @@
     </row>
     <row r="89" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D89" s="12">
         <v>3.0617234375</v>
@@ -11591,7 +11602,7 @@
         <v>58</v>
       </c>
       <c r="X89" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y89" s="3" t="s">
         <v>386</v>
@@ -11643,13 +11654,13 @@
     </row>
     <row r="90" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D90" s="12">
         <v>3.0617234375</v>
@@ -11756,13 +11767,13 @@
     </row>
     <row r="91" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D91" s="12">
         <v>3.0617234375</v>
@@ -11817,7 +11828,7 @@
         <v>33</v>
       </c>
       <c r="X91" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>386</v>
@@ -11869,13 +11880,13 @@
     </row>
     <row r="92" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D92" s="12">
         <v>3.0617234375</v>
@@ -11980,13 +11991,13 @@
     </row>
     <row r="93" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D93" s="12">
         <v>3.0617234375</v>
@@ -12041,7 +12052,7 @@
         <v>47</v>
       </c>
       <c r="X93" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y93" s="3" t="s">
         <v>386</v>
@@ -12093,13 +12104,13 @@
     </row>
     <row r="94" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D94" s="12">
         <v>3.0617234375</v>
@@ -12154,7 +12165,7 @@
         <v>58</v>
       </c>
       <c r="X94" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>386</v>
@@ -12206,13 +12217,13 @@
     </row>
     <row r="95" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D95" s="12">
         <v>3.0617234375</v>
@@ -12319,13 +12330,13 @@
     </row>
     <row r="96" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D96" s="12">
         <v>3.0617234375</v>
@@ -12430,13 +12441,13 @@
     </row>
     <row r="97" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D97" s="12">
         <v>3.0617234375</v>
@@ -12543,13 +12554,13 @@
     </row>
     <row r="98" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D98" s="12">
         <v>3.0617234375</v>
@@ -12600,7 +12611,7 @@
         <v>50</v>
       </c>
       <c r="X98" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y98" s="3" t="s">
         <v>386</v>
@@ -12652,13 +12663,13 @@
     </row>
     <row r="99" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D99" s="12">
         <v>3.0617234375</v>
@@ -12765,13 +12776,13 @@
     </row>
     <row r="100" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D100" s="12">
         <v>3.0617234375</v>
@@ -12874,13 +12885,13 @@
     </row>
     <row r="101" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D101" s="12">
         <v>3.0617234375</v>
@@ -12985,13 +12996,13 @@
     </row>
     <row r="102" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D102" s="12">
         <v>3.0617234375</v>
@@ -13100,13 +13111,13 @@
     </row>
     <row r="103" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D103" s="12">
         <v>3.0617234375</v>
@@ -13211,13 +13222,13 @@
     </row>
     <row r="104" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D104" s="12">
         <v>3.0617234375</v>
@@ -13322,13 +13333,13 @@
     </row>
     <row r="105" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D105" s="12">
         <v>3.0617234375</v>
@@ -13381,7 +13392,7 @@
         <v>50</v>
       </c>
       <c r="X105" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y105" s="3" t="s">
         <v>386</v>
@@ -13433,13 +13444,13 @@
     </row>
     <row r="106" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D106" s="12">
         <v>3.0617234375</v>
@@ -13544,13 +13555,13 @@
     </row>
     <row r="107" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D107" s="12">
         <v>3.0617234375</v>
@@ -13603,7 +13614,7 @@
         <v>47</v>
       </c>
       <c r="X107" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y107" s="3" t="s">
         <v>386</v>
@@ -13655,13 +13666,13 @@
     </row>
     <row r="108" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D108" s="12">
         <v>3.0617234375</v>
@@ -13714,7 +13725,7 @@
         <v>47</v>
       </c>
       <c r="X108" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y108" s="3" t="s">
         <v>386</v>
@@ -13766,13 +13777,13 @@
     </row>
     <row r="109" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D109" s="12">
         <v>3.0617234375</v>
@@ -13877,13 +13888,13 @@
     </row>
     <row r="110" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D110" s="12">
         <v>3.0617234375</v>
@@ -13932,7 +13943,7 @@
         <v>152</v>
       </c>
       <c r="X110" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y110" s="3" t="s">
         <v>386</v>
@@ -13984,13 +13995,13 @@
     </row>
     <row r="111" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D111" s="12">
         <v>3.0617234375</v>
@@ -14041,7 +14052,7 @@
         <v>33</v>
       </c>
       <c r="X111" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y111" s="3" t="s">
         <v>386</v>
@@ -14093,13 +14104,13 @@
     </row>
     <row r="112" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D112" s="12">
         <v>3.0617234375</v>
@@ -14204,13 +14215,13 @@
     </row>
     <row r="113" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D113" s="12">
         <v>3.0617234375</v>
@@ -14263,7 +14274,7 @@
         <v>33</v>
       </c>
       <c r="X113" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y113" s="3" t="s">
         <v>386</v>
@@ -14315,13 +14326,13 @@
     </row>
     <row r="114" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D114" s="12">
         <v>3.0617234375</v>
@@ -14374,7 +14385,7 @@
         <v>33</v>
       </c>
       <c r="X114" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y114" s="3" t="s">
         <v>386</v>
@@ -14426,13 +14437,13 @@
     </row>
     <row r="115" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D115" s="12">
         <v>3.0617234375</v>
@@ -14535,13 +14546,13 @@
     </row>
     <row r="116" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D116" s="12">
         <v>3.0617234375</v>
@@ -14644,13 +14655,13 @@
     </row>
     <row r="117" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D117" s="12">
         <v>3.0617234375</v>
@@ -14757,13 +14768,13 @@
     </row>
     <row r="118" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D118" s="12">
         <v>3.0617234375</v>
@@ -14818,7 +14829,7 @@
         <v>58</v>
       </c>
       <c r="X118" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y118" s="3" t="s">
         <v>386</v>
@@ -14870,13 +14881,13 @@
     </row>
     <row r="119" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D119" s="12">
         <v>3.0617234375</v>
@@ -14983,13 +14994,13 @@
     </row>
     <row r="120" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D120" s="12">
         <v>3.0617234375</v>
@@ -15042,7 +15053,7 @@
         <v>58</v>
       </c>
       <c r="X120" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y120" s="3" t="s">
         <v>386</v>
@@ -15094,13 +15105,13 @@
     </row>
     <row r="121" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D121" s="12">
         <v>3.0617234375</v>
@@ -15151,7 +15162,7 @@
         <v>58</v>
       </c>
       <c r="X121" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y121" s="3" t="s">
         <v>386</v>
@@ -15203,13 +15214,13 @@
     </row>
     <row r="122" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D122" s="12">
         <v>3.0617234375</v>
@@ -15316,13 +15327,13 @@
     </row>
     <row r="123" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D123" s="12">
         <v>3.0617234375</v>
@@ -15373,7 +15384,7 @@
         <v>38</v>
       </c>
       <c r="X123" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y123" s="3" t="s">
         <v>386</v>
@@ -15425,13 +15436,13 @@
     </row>
     <row r="124" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D124" s="12">
         <v>3.0617234375</v>
@@ -15536,13 +15547,13 @@
     </row>
     <row r="125" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D125" s="12">
         <v>3.0617234375</v>
@@ -15649,13 +15660,13 @@
     </row>
     <row r="126" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D126" s="12">
         <v>3.0617234375</v>
@@ -15708,7 +15719,7 @@
         <v>47</v>
       </c>
       <c r="X126" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y126" s="3" t="s">
         <v>386</v>
@@ -15760,13 +15771,13 @@
     </row>
     <row r="127" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D127" s="12">
         <v>3.0617234375</v>
@@ -15821,7 +15832,7 @@
         <v>47</v>
       </c>
       <c r="X127" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y127" s="3" t="s">
         <v>386</v>
@@ -15873,13 +15884,13 @@
     </row>
     <row r="128" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D128" s="12">
         <v>3.0617234375</v>
@@ -15986,13 +15997,13 @@
     </row>
     <row r="129" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D129" s="12">
         <v>71.249740625000001</v>
@@ -16095,13 +16106,13 @@
     </row>
     <row r="130" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D130" s="12">
         <v>71.249740625000001</v>
@@ -16208,13 +16219,13 @@
     </row>
     <row r="131" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D131" s="12">
         <v>71.249740625000001</v>
@@ -16319,13 +16330,13 @@
     </row>
     <row r="132" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D132" s="12">
         <v>71.249740625000001</v>
@@ -16432,13 +16443,13 @@
     </row>
     <row r="133" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D133" s="12">
         <v>71.249740625000001</v>
@@ -16491,7 +16502,7 @@
         <v>152</v>
       </c>
       <c r="X133" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y133" s="3" t="s">
         <v>386</v>
@@ -16543,13 +16554,13 @@
     </row>
     <row r="134" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D134" s="12">
         <v>71.249740625000001</v>
@@ -16652,13 +16663,13 @@
     </row>
     <row r="135" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D135" s="12">
         <v>71.249740625000001</v>
@@ -16763,13 +16774,13 @@
     </row>
     <row r="136" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D136" s="12">
         <v>71.249740625000001</v>
@@ -16822,7 +16833,7 @@
         <v>50</v>
       </c>
       <c r="X136" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y136" s="3" t="s">
         <v>386</v>
@@ -16874,13 +16885,13 @@
     </row>
     <row r="137" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D137" s="12">
         <v>71.249740625000001</v>
@@ -16931,7 +16942,7 @@
         <v>33</v>
       </c>
       <c r="X137" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y137" s="3" t="s">
         <v>386</v>
@@ -16983,13 +16994,13 @@
     </row>
     <row r="138" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D138" s="12">
         <v>71.249740625000001</v>
@@ -17042,7 +17053,7 @@
         <v>33</v>
       </c>
       <c r="X138" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y138" s="3" t="s">
         <v>386</v>
@@ -17094,13 +17105,13 @@
     </row>
     <row r="139" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D139" s="12">
         <v>71.249740625000001</v>
@@ -17207,13 +17218,13 @@
     </row>
     <row r="140" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D140" s="12">
         <v>71.249740625000001</v>
@@ -17264,7 +17275,7 @@
         <v>67</v>
       </c>
       <c r="X140" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y140" s="3" t="s">
         <v>386</v>
@@ -17316,13 +17327,13 @@
     </row>
     <row r="141" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D141" s="12">
         <v>71.249740625000001</v>
@@ -17373,7 +17384,7 @@
         <v>58</v>
       </c>
       <c r="X141" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y141" s="3" t="s">
         <v>386</v>
@@ -17425,13 +17436,13 @@
     </row>
     <row r="142" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D142" s="12">
         <v>71.249740625000001</v>
@@ -17538,13 +17549,13 @@
     </row>
     <row r="143" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D143" s="12">
         <v>71.249740625000001</v>
@@ -17597,7 +17608,7 @@
         <v>47</v>
       </c>
       <c r="X143" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y143" s="3" t="s">
         <v>386</v>
@@ -17649,13 +17660,13 @@
     </row>
     <row r="144" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D144" s="12">
         <v>82.338353124999998</v>
@@ -17762,13 +17773,13 @@
     </row>
     <row r="145" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D145" s="12">
         <v>82.338353124999998</v>
@@ -17875,13 +17886,13 @@
     </row>
     <row r="146" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D146" s="12">
         <v>82.338353124999998</v>
@@ -17936,7 +17947,7 @@
         <v>33</v>
       </c>
       <c r="X146" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y146" s="3" t="s">
         <v>386</v>
@@ -17988,13 +17999,13 @@
     </row>
     <row r="147" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D147" s="12">
         <v>82.338353124999998</v>
@@ -18101,13 +18112,13 @@
     </row>
     <row r="148" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D148" s="12">
         <v>82.338353124999998</v>
@@ -18214,13 +18225,13 @@
     </row>
     <row r="149" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D149" s="12">
         <v>82.338353124999998</v>
@@ -18329,13 +18340,13 @@
     </row>
     <row r="150" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D150" s="12">
         <v>82.338353124999998</v>
@@ -18440,13 +18451,13 @@
     </row>
     <row r="151" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D151" s="12">
         <v>82.338353124999998</v>
@@ -18551,13 +18562,13 @@
     </row>
     <row r="152" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D152" s="12">
         <v>82.338353124999998</v>
@@ -18666,13 +18677,13 @@
     </row>
     <row r="153" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D153" s="12">
         <v>82.338353124999998</v>
@@ -18725,7 +18736,7 @@
         <v>383</v>
       </c>
       <c r="X153" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y153" s="3" t="s">
         <v>386</v>
@@ -18777,13 +18788,13 @@
     </row>
     <row r="154" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D154" s="12">
         <v>82.338353124999998</v>
@@ -18890,13 +18901,13 @@
     </row>
     <row r="155" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D155" s="12">
         <v>82.338353124999998</v>
@@ -19003,13 +19014,13 @@
     </row>
     <row r="156" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D156" s="12">
         <v>82.338353124999998</v>
@@ -19116,13 +19127,13 @@
     </row>
     <row r="157" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D157" s="12">
         <v>82.338353124999998</v>
@@ -19229,13 +19240,13 @@
     </row>
     <row r="158" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D158" s="12">
         <v>82.338353124999998</v>
@@ -19288,7 +19299,7 @@
         <v>33</v>
       </c>
       <c r="X158" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y158" s="3" t="s">
         <v>386</v>
@@ -19340,13 +19351,13 @@
     </row>
     <row r="159" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D159" s="12">
         <v>82.338353124999998</v>
@@ -19399,7 +19410,7 @@
         <v>50</v>
       </c>
       <c r="X159" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y159" s="3" t="s">
         <v>386</v>
@@ -19451,13 +19462,13 @@
     </row>
     <row r="160" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D160" s="12">
         <v>82.338353124999998</v>
@@ -19566,13 +19577,13 @@
     </row>
     <row r="161" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D161" s="12">
         <v>82.338353124999998</v>
@@ -19677,13 +19688,13 @@
     </row>
     <row r="162" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D162" s="12">
         <v>82.338353124999998</v>
@@ -19736,7 +19747,7 @@
         <v>50</v>
       </c>
       <c r="X162" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y162" s="3" t="s">
         <v>386</v>
@@ -19788,13 +19799,13 @@
     </row>
     <row r="163" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D163" s="12">
         <v>82.338353124999998</v>
@@ -19847,7 +19858,7 @@
         <v>47</v>
       </c>
       <c r="X163" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y163" s="3" t="s">
         <v>386</v>
@@ -19899,13 +19910,13 @@
     </row>
     <row r="164" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D164" s="12">
         <v>82.338353124999998</v>
@@ -20012,13 +20023,13 @@
     </row>
     <row r="165" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D165" s="12">
         <v>82.338353124999998</v>
@@ -20071,7 +20082,7 @@
         <v>47</v>
       </c>
       <c r="X165" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y165" s="3" t="s">
         <v>386</v>
@@ -20123,13 +20134,13 @@
     </row>
     <row r="166" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D166" s="12">
         <v>82.338353124999998</v>
@@ -20182,7 +20193,7 @@
         <v>33</v>
       </c>
       <c r="X166" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y166" s="3" t="s">
         <v>386</v>
@@ -20234,13 +20245,13 @@
     </row>
     <row r="167" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D167" s="12">
         <v>82.338353124999998</v>
@@ -20347,13 +20358,13 @@
     </row>
     <row r="168" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D168" s="12">
         <v>82.338353124999998</v>
@@ -20458,13 +20469,13 @@
     </row>
     <row r="169" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D169" s="12">
         <v>82.338353124999998</v>
@@ -20573,13 +20584,13 @@
     </row>
     <row r="170" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D170" s="12">
         <v>82.338353124999998</v>
@@ -20634,7 +20645,7 @@
         <v>33</v>
       </c>
       <c r="X170" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y170" s="3" t="s">
         <v>386</v>
@@ -20686,13 +20697,13 @@
     </row>
     <row r="171" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D171" s="12">
         <v>82.338353124999998</v>
@@ -20745,7 +20756,7 @@
         <v>33</v>
       </c>
       <c r="X171" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y171" s="3" t="s">
         <v>386</v>
@@ -20797,13 +20808,13 @@
     </row>
     <row r="172" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D172" s="12">
         <v>82.338353124999998</v>
@@ -20906,13 +20917,13 @@
     </row>
     <row r="173" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D173" s="12">
         <v>82.338353124999998</v>
@@ -21015,13 +21026,13 @@
     </row>
     <row r="174" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D174" s="12">
         <v>82.338353124999998</v>
@@ -21128,13 +21139,13 @@
     </row>
     <row r="175" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D175" s="12">
         <v>82.338353124999998</v>
@@ -21189,7 +21200,7 @@
         <v>33</v>
       </c>
       <c r="X175" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y175" s="3" t="s">
         <v>386</v>
@@ -21241,13 +21252,13 @@
     </row>
     <row r="176" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D176" s="12">
         <v>82.338353124999998</v>
@@ -21352,13 +21363,13 @@
     </row>
     <row r="177" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D177" s="12">
         <v>82.338353124999998</v>
@@ -21463,13 +21474,13 @@
     </row>
     <row r="178" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D178" s="12">
         <v>82.338353124999998</v>
@@ -21576,13 +21587,13 @@
     </row>
     <row r="179" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D179" s="12">
         <v>82.338353124999998</v>
@@ -21689,13 +21700,13 @@
     </row>
     <row r="180" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D180" s="12">
         <v>82.338353124999998</v>
@@ -21748,7 +21759,7 @@
         <v>33</v>
       </c>
       <c r="X180" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y180" s="3" t="s">
         <v>386</v>
@@ -21800,13 +21811,13 @@
     </row>
     <row r="181" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D181" s="12">
         <v>82.338353124999998</v>
@@ -21857,7 +21868,7 @@
         <v>38</v>
       </c>
       <c r="X181" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y181" s="3" t="s">
         <v>386</v>
@@ -21909,13 +21920,13 @@
     </row>
     <row r="182" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D182" s="12">
         <v>82.338353124999998</v>
@@ -22020,13 +22031,13 @@
     </row>
     <row r="183" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D183" s="12">
         <v>82.338353124999998</v>
@@ -22133,13 +22144,13 @@
     </row>
     <row r="184" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D184" s="12">
         <v>82.338353124999998</v>
@@ -22194,7 +22205,7 @@
         <v>47</v>
       </c>
       <c r="X184" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y184" s="3" t="s">
         <v>386</v>
@@ -22246,13 +22257,13 @@
     </row>
     <row r="185" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>341</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D185" s="12">
         <v>85.519765625000005</v>
@@ -22305,10 +22316,10 @@
         <v>33</v>
       </c>
       <c r="X185" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y185" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z185" s="3">
         <v>7</v>
@@ -22357,13 +22368,13 @@
     </row>
     <row r="186" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>341</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D186" s="12">
         <v>85.519765625000005</v>
@@ -22416,10 +22427,10 @@
         <v>38</v>
       </c>
       <c r="X186" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y186" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z186" s="3">
         <v>7</v>
@@ -22468,13 +22479,13 @@
     </row>
     <row r="187" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>341</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D187" s="12">
         <v>85.519765625000005</v>
@@ -22525,10 +22536,10 @@
         <v>33</v>
       </c>
       <c r="X187" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y187" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z187" s="3">
         <v>7</v>
@@ -22577,13 +22588,13 @@
     </row>
     <row r="188" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>341</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D188" s="12">
         <v>85.519765625000005</v>
@@ -22592,7 +22603,7 @@
         <v>204</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G188" s="7">
         <v>9</v>
@@ -22613,7 +22624,7 @@
         <v>195</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N188" s="3"/>
       <c r="O188" s="3" t="s">
@@ -22634,10 +22645,10 @@
         <v>33</v>
       </c>
       <c r="X188" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y188" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z188" s="3">
         <v>7</v>
@@ -22686,13 +22697,13 @@
     </row>
     <row r="189" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>341</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D189" s="12">
         <v>85.519765625000005</v>
@@ -22743,10 +22754,10 @@
         <v>50</v>
       </c>
       <c r="X189" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y189" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z189" s="3">
         <v>7</v>
@@ -22795,13 +22806,13 @@
     </row>
     <row r="190" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>341</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D190" s="12">
         <v>85.519765625000005</v>
@@ -22854,10 +22865,10 @@
         <v>50</v>
       </c>
       <c r="X190" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y190" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z190" s="3">
         <v>7</v>
@@ -22906,13 +22917,13 @@
     </row>
     <row r="191" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>341</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D191" s="12">
         <v>85.519765625000005</v>
@@ -22967,10 +22978,10 @@
         <v>50</v>
       </c>
       <c r="X191" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y191" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z191" s="3">
         <v>7</v>
@@ -23019,13 +23030,13 @@
     </row>
     <row r="192" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>341</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D192" s="12">
         <v>85.519765625000005</v>
@@ -23081,7 +23092,7 @@
         <v>385</v>
       </c>
       <c r="Y192" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z192" s="3">
         <v>7</v>
@@ -23130,13 +23141,13 @@
     </row>
     <row r="193" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>341</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D193" s="12">
         <v>85.519765625000005</v>
@@ -23189,10 +23200,10 @@
         <v>50</v>
       </c>
       <c r="X193" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y193" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z193" s="3">
         <v>7</v>
@@ -23241,13 +23252,13 @@
     </row>
     <row r="194" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>341</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D194" s="12">
         <v>85.519765625000005</v>
@@ -23298,10 +23309,10 @@
         <v>33</v>
       </c>
       <c r="X194" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y194" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z194" s="3">
         <v>7</v>
@@ -23350,13 +23361,13 @@
     </row>
     <row r="195" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>341</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D195" s="12">
         <v>85.519765625000005</v>
@@ -23412,7 +23423,7 @@
         <v>385</v>
       </c>
       <c r="Y195" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z195" s="3">
         <v>7</v>
@@ -23461,13 +23472,13 @@
     </row>
     <row r="196" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>341</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D196" s="12">
         <v>85.519765625000005</v>
@@ -23522,10 +23533,10 @@
         <v>33</v>
       </c>
       <c r="X196" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y196" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z196" s="3">
         <v>7</v>
@@ -23574,13 +23585,13 @@
     </row>
     <row r="197" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>341</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D197" s="12">
         <v>85.519765625000005</v>
@@ -23633,10 +23644,10 @@
         <v>33</v>
       </c>
       <c r="X197" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y197" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z197" s="3">
         <v>7</v>
@@ -23685,13 +23696,13 @@
     </row>
     <row r="198" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>341</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D198" s="12">
         <v>85.519765625000005</v>
@@ -23744,10 +23755,10 @@
         <v>33</v>
       </c>
       <c r="X198" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y198" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z198" s="3">
         <v>7</v>
@@ -23796,13 +23807,13 @@
     </row>
     <row r="199" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>341</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D199" s="12">
         <v>85.519765625000005</v>
@@ -23857,10 +23868,10 @@
         <v>152</v>
       </c>
       <c r="X199" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y199" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z199" s="3">
         <v>7</v>
@@ -23909,13 +23920,13 @@
     </row>
     <row r="200" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>341</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D200" s="12">
         <v>85.519765625000005</v>
@@ -23968,10 +23979,10 @@
         <v>33</v>
       </c>
       <c r="X200" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y200" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z200" s="3">
         <v>7</v>
@@ -24020,13 +24031,13 @@
     </row>
     <row r="201" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>341</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D201" s="12">
         <v>85.519765625000005</v>
@@ -24077,10 +24088,10 @@
         <v>38</v>
       </c>
       <c r="X201" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y201" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z201" s="3">
         <v>7</v>
@@ -24129,13 +24140,13 @@
     </row>
     <row r="202" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>341</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D202" s="12">
         <v>85.519765625000005</v>
@@ -24193,7 +24204,7 @@
         <v>385</v>
       </c>
       <c r="Y202" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z202" s="3">
         <v>7</v>
@@ -24242,13 +24253,13 @@
     </row>
     <row r="203" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D203" s="12">
         <v>1.4787390625000001</v>
@@ -24302,7 +24313,7 @@
         <v>385</v>
       </c>
       <c r="Y203" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z203" s="3">
         <v>7</v>
@@ -24351,13 +24362,13 @@
     </row>
     <row r="204" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D204" s="12">
         <v>1.4787390625000001</v>
@@ -24417,7 +24428,7 @@
         <v>385</v>
       </c>
       <c r="Y204" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z204" s="3">
         <v>7</v>
@@ -24466,13 +24477,13 @@
     </row>
     <row r="205" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D205" s="12">
         <v>1.4787390625000001</v>
@@ -24525,10 +24536,10 @@
         <v>58</v>
       </c>
       <c r="X205" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y205" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z205" s="3">
         <v>7</v>
@@ -24577,13 +24588,13 @@
     </row>
     <row r="206" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D206" s="12">
         <v>1.4787390625000001</v>
@@ -24641,7 +24652,7 @@
         <v>385</v>
       </c>
       <c r="Y206" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z206" s="3">
         <v>7</v>
@@ -24690,13 +24701,13 @@
     </row>
     <row r="207" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D207" s="12">
         <v>1.4787390625000001</v>
@@ -24750,7 +24761,7 @@
         <v>385</v>
       </c>
       <c r="Y207" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z207" s="3">
         <v>7</v>
@@ -24799,13 +24810,13 @@
     </row>
     <row r="208" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D208" s="12">
         <v>1.4787390625000001</v>
@@ -24861,7 +24872,7 @@
         <v>385</v>
       </c>
       <c r="Y208" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z208" s="3">
         <v>7</v>
@@ -24910,13 +24921,13 @@
     </row>
     <row r="209" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D209" s="12">
         <v>1.4787390625000001</v>
@@ -24971,10 +24982,10 @@
         <v>58</v>
       </c>
       <c r="X209" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y209" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z209" s="3">
         <v>7</v>
@@ -25023,13 +25034,13 @@
     </row>
     <row r="210" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D210" s="12">
         <v>1.4787390625000001</v>
@@ -25087,7 +25098,7 @@
         <v>385</v>
       </c>
       <c r="Y210" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z210" s="3">
         <v>7</v>
@@ -25136,13 +25147,13 @@
     </row>
     <row r="211" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D211" s="12">
         <v>1.4787390625000001</v>
@@ -25195,10 +25206,10 @@
         <v>33</v>
       </c>
       <c r="X211" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y211" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z211" s="3">
         <v>7</v>
@@ -25247,13 +25258,13 @@
     </row>
     <row r="212" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D212" s="12">
         <v>1.4787390625000001</v>
@@ -25311,7 +25322,7 @@
         <v>385</v>
       </c>
       <c r="Y212" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z212" s="3">
         <v>7</v>
@@ -25360,13 +25371,13 @@
     </row>
     <row r="213" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D213" s="12">
         <v>1.4787390625000001</v>
@@ -25424,7 +25435,7 @@
         <v>385</v>
       </c>
       <c r="Y213" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z213" s="3">
         <v>7</v>
@@ -25473,13 +25484,13 @@
     </row>
     <row r="214" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D214" s="12">
         <v>1.4787390625000001</v>
@@ -25539,7 +25550,7 @@
         <v>385</v>
       </c>
       <c r="Y214" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z214" s="3">
         <v>7</v>
@@ -25588,13 +25599,13 @@
     </row>
     <row r="215" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D215" s="12">
         <v>1.4787390625000001</v>
@@ -25650,7 +25661,7 @@
         <v>385</v>
       </c>
       <c r="Y215" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z215" s="3">
         <v>7</v>
@@ -25699,13 +25710,13 @@
     </row>
     <row r="216" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D216" s="12">
         <v>1.4787390625000001</v>
@@ -25761,7 +25772,7 @@
         <v>385</v>
       </c>
       <c r="Y216" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z216" s="3">
         <v>7</v>
@@ -25810,13 +25821,13 @@
     </row>
     <row r="217" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D217" s="12">
         <v>1.4787390625000001</v>
@@ -25869,10 +25880,10 @@
         <v>50</v>
       </c>
       <c r="X217" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y217" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z217" s="3">
         <v>7</v>
@@ -25921,13 +25932,13 @@
     </row>
     <row r="218" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D218" s="12">
         <v>1.4787390625000001</v>
@@ -25980,10 +25991,10 @@
         <v>47</v>
       </c>
       <c r="X218" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y218" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z218" s="3">
         <v>7</v>
@@ -26032,13 +26043,13 @@
     </row>
     <row r="219" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D219" s="12">
         <v>1.4787390625000001</v>
@@ -26091,10 +26102,10 @@
         <v>47</v>
       </c>
       <c r="X219" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y219" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z219" s="3">
         <v>7</v>
@@ -26143,13 +26154,13 @@
     </row>
     <row r="220" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D220" s="12">
         <v>1.4787390625000001</v>
@@ -26202,10 +26213,10 @@
         <v>33</v>
       </c>
       <c r="X220" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y220" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z220" s="3">
         <v>7</v>
@@ -26254,13 +26265,13 @@
     </row>
     <row r="221" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D221" s="12">
         <v>1.4787390625000001</v>
@@ -26320,7 +26331,7 @@
         <v>385</v>
       </c>
       <c r="Y221" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z221" s="3">
         <v>7</v>
@@ -26369,13 +26380,13 @@
     </row>
     <row r="222" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D222" s="12">
         <v>1.4787390625000001</v>
@@ -26424,10 +26435,10 @@
         <v>152</v>
       </c>
       <c r="X222" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y222" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z222" s="3">
         <v>7</v>
@@ -26476,13 +26487,13 @@
     </row>
     <row r="223" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D223" s="12">
         <v>1.4787390625000001</v>
@@ -26537,10 +26548,10 @@
         <v>58</v>
       </c>
       <c r="X223" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y223" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z223" s="3">
         <v>7</v>
@@ -26589,13 +26600,13 @@
     </row>
     <row r="224" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D224" s="12">
         <v>1.4787390625000001</v>
@@ -26646,10 +26657,10 @@
         <v>33</v>
       </c>
       <c r="X224" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y224" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z224" s="3">
         <v>7</v>
@@ -26698,13 +26709,13 @@
     </row>
     <row r="225" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D225" s="12">
         <v>1.4787390625000001</v>
@@ -26760,7 +26771,7 @@
         <v>385</v>
       </c>
       <c r="Y225" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z225" s="3">
         <v>7</v>
@@ -26809,13 +26820,13 @@
     </row>
     <row r="226" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D226" s="12">
         <v>1.4787390625000001</v>
@@ -26868,10 +26879,10 @@
         <v>33</v>
       </c>
       <c r="X226" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y226" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z226" s="3">
         <v>7</v>
@@ -26920,13 +26931,13 @@
     </row>
     <row r="227" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D227" s="12">
         <v>1.4787390625000001</v>
@@ -26979,10 +26990,10 @@
         <v>33</v>
       </c>
       <c r="X227" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y227" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z227" s="3">
         <v>7</v>
@@ -27031,13 +27042,13 @@
     </row>
     <row r="228" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D228" s="12">
         <v>1.4787390625000001</v>
@@ -27095,7 +27106,7 @@
         <v>385</v>
       </c>
       <c r="Y228" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z228" s="3">
         <v>7</v>
@@ -27144,13 +27155,13 @@
     </row>
     <row r="229" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D229" s="12">
         <v>1.4787390625000001</v>
@@ -27208,7 +27219,7 @@
         <v>385</v>
       </c>
       <c r="Y229" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z229" s="3">
         <v>7</v>
@@ -27257,13 +27268,13 @@
     </row>
     <row r="230" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D230" s="12">
         <v>1.4787390625000001</v>
@@ -27314,10 +27325,10 @@
         <v>67</v>
       </c>
       <c r="X230" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y230" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z230" s="3">
         <v>7</v>
@@ -27366,13 +27377,13 @@
     </row>
     <row r="231" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D231" s="12">
         <v>1.4787390625000001</v>
@@ -27427,10 +27438,10 @@
         <v>383</v>
       </c>
       <c r="X231" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y231" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z231" s="3">
         <v>7</v>
@@ -27479,13 +27490,13 @@
     </row>
     <row r="232" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D232" s="12">
         <v>1.4787390625000001</v>
@@ -27538,10 +27549,10 @@
         <v>58</v>
       </c>
       <c r="X232" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y232" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z232" s="3">
         <v>7</v>
@@ -27590,13 +27601,13 @@
     </row>
     <row r="233" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D233" s="12">
         <v>1.4787390625000001</v>
@@ -27647,10 +27658,10 @@
         <v>38</v>
       </c>
       <c r="X233" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y233" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z233" s="3">
         <v>7</v>
@@ -27699,13 +27710,13 @@
     </row>
     <row r="234" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D234" s="12">
         <v>1.4787390625000001</v>
@@ -27763,7 +27774,7 @@
         <v>385</v>
       </c>
       <c r="Y234" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z234" s="3">
         <v>7</v>
@@ -27812,13 +27823,13 @@
     </row>
     <row r="235" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D235" s="12">
         <v>1.4787390625000001</v>
@@ -27873,10 +27884,10 @@
         <v>47</v>
       </c>
       <c r="X235" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y235" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z235" s="3">
         <v>7</v>
@@ -27925,13 +27936,13 @@
     </row>
     <row r="236" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D236" s="12">
         <v>47.242431250000003</v>
@@ -27986,10 +27997,10 @@
         <v>58</v>
       </c>
       <c r="X236" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y236" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z236" s="3">
         <v>7</v>
@@ -28038,13 +28049,13 @@
     </row>
     <row r="237" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D237" s="12">
         <v>47.242431250000003</v>
@@ -28097,10 +28108,10 @@
         <v>58</v>
       </c>
       <c r="X237" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y237" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z237" s="3">
         <v>7</v>
@@ -28149,13 +28160,13 @@
     </row>
     <row r="238" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D238" s="12">
         <v>47.242431250000003</v>
@@ -28206,10 +28217,10 @@
         <v>33</v>
       </c>
       <c r="X238" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y238" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z238" s="3">
         <v>7</v>
@@ -28258,13 +28269,13 @@
     </row>
     <row r="239" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D239" s="12">
         <v>47.242431250000003</v>
@@ -28273,7 +28284,7 @@
         <v>204</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G239" s="7">
         <v>47</v>
@@ -28294,14 +28305,14 @@
         <v>195</v>
       </c>
       <c r="M239" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N239" s="3"/>
       <c r="O239" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P239" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q239" s="3"/>
       <c r="R239" s="3"/>
@@ -28315,10 +28326,10 @@
         <v>67</v>
       </c>
       <c r="X239" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y239" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z239" s="3">
         <v>7</v>
@@ -28367,13 +28378,13 @@
     </row>
     <row r="240" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D240" s="12">
         <v>47.242431250000003</v>
@@ -28428,10 +28439,10 @@
         <v>33</v>
       </c>
       <c r="X240" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y240" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z240" s="3">
         <v>7</v>
@@ -28480,13 +28491,13 @@
     </row>
     <row r="241" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D241" s="12">
         <v>47.242431250000003</v>
@@ -28537,10 +28548,10 @@
         <v>58</v>
       </c>
       <c r="X241" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y241" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z241" s="3">
         <v>7</v>
@@ -28589,13 +28600,13 @@
     </row>
     <row r="242" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D242" s="12">
         <v>47.242431250000003</v>
@@ -28604,7 +28615,7 @@
         <v>204</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G242" s="7">
         <v>81</v>
@@ -28625,7 +28636,7 @@
         <v>195</v>
       </c>
       <c r="M242" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N242" s="3"/>
       <c r="O242" s="3" t="s">
@@ -28646,10 +28657,10 @@
         <v>33</v>
       </c>
       <c r="X242" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y242" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z242" s="3">
         <v>7</v>
@@ -28698,13 +28709,13 @@
     </row>
     <row r="243" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D243" s="12">
         <v>47.242431250000003</v>
@@ -28713,7 +28724,7 @@
         <v>204</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G243" s="7">
         <v>1</v>
@@ -28741,7 +28752,7 @@
         <v>374</v>
       </c>
       <c r="P243" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q243" s="3"/>
       <c r="R243" s="3"/>
@@ -28755,10 +28766,10 @@
         <v>58</v>
       </c>
       <c r="X243" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y243" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z243" s="3">
         <v>7</v>
@@ -28807,13 +28818,13 @@
     </row>
     <row r="244" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D244" s="12">
         <v>47.242431250000003</v>
@@ -28866,10 +28877,10 @@
         <v>33</v>
       </c>
       <c r="X244" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y244" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z244" s="3">
         <v>7</v>
@@ -28918,13 +28929,13 @@
     </row>
     <row r="245" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D245" s="12">
         <v>47.242431250000003</v>
@@ -28977,10 +28988,10 @@
         <v>58</v>
       </c>
       <c r="X245" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y245" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z245" s="3">
         <v>7</v>
@@ -29029,13 +29040,13 @@
     </row>
     <row r="246" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D246" s="12">
         <v>47.242431250000003</v>
@@ -29090,10 +29101,10 @@
         <v>33</v>
       </c>
       <c r="X246" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y246" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z246" s="3">
         <v>7</v>
@@ -29142,13 +29153,13 @@
     </row>
     <row r="247" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D247" s="12">
         <v>47.242431250000003</v>
@@ -29204,7 +29215,7 @@
         <v>385</v>
       </c>
       <c r="Y247" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z247" s="3">
         <v>7</v>
@@ -29253,13 +29264,13 @@
     </row>
     <row r="248" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D248" s="12">
         <v>47.242431250000003</v>
@@ -29314,10 +29325,10 @@
         <v>47</v>
       </c>
       <c r="X248" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y248" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z248" s="3">
         <v>7</v>
@@ -29366,13 +29377,13 @@
     </row>
     <row r="249" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D249" s="12">
         <v>47.242431250000003</v>
@@ -29425,10 +29436,10 @@
         <v>152</v>
       </c>
       <c r="X249" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y249" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z249" s="3">
         <v>7</v>
@@ -29477,13 +29488,13 @@
     </row>
     <row r="250" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D250" s="12">
         <v>47.242431250000003</v>
@@ -29536,10 +29547,10 @@
         <v>58</v>
       </c>
       <c r="X250" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y250" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z250" s="3">
         <v>7</v>
@@ -29588,13 +29599,13 @@
     </row>
     <row r="251" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C251" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D251" s="12">
         <v>47.242431250000003</v>
@@ -29647,10 +29658,10 @@
         <v>33</v>
       </c>
       <c r="X251" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y251" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z251" s="3">
         <v>7</v>
@@ -29699,13 +29710,13 @@
     </row>
     <row r="252" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D252" s="12">
         <v>47.242431250000003</v>
@@ -29760,10 +29771,10 @@
         <v>58</v>
       </c>
       <c r="X252" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y252" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z252" s="3">
         <v>7</v>
@@ -29812,13 +29823,13 @@
     </row>
     <row r="253" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C253" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D253" s="12">
         <v>47.242431250000003</v>
@@ -29871,10 +29882,10 @@
         <v>33</v>
       </c>
       <c r="X253" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y253" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z253" s="3">
         <v>7</v>
@@ -29923,13 +29934,13 @@
     </row>
     <row r="254" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D254" s="12">
         <v>47.242431250000003</v>
@@ -29984,10 +29995,10 @@
         <v>58</v>
       </c>
       <c r="X254" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y254" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z254" s="3">
         <v>7</v>
@@ -30036,13 +30047,13 @@
     </row>
     <row r="255" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C255" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D255" s="12">
         <v>47.242431250000003</v>
@@ -30093,10 +30104,10 @@
         <v>33</v>
       </c>
       <c r="X255" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y255" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z255" s="3">
         <v>7</v>
@@ -30145,13 +30156,13 @@
     </row>
     <row r="256" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D256" s="12">
         <v>47.242431250000003</v>
@@ -30200,10 +30211,10 @@
         <v>33</v>
       </c>
       <c r="X256" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y256" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z256" s="3">
         <v>7</v>
@@ -30252,13 +30263,13 @@
     </row>
     <row r="257" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D257" s="12">
         <v>47.242431250000003</v>
@@ -30316,7 +30327,7 @@
         <v>385</v>
       </c>
       <c r="Y257" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z257" s="3">
         <v>7</v>
@@ -30365,13 +30376,13 @@
     </row>
     <row r="258" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D258" s="12">
         <v>47.242431250000003</v>
@@ -30424,10 +30435,10 @@
         <v>38</v>
       </c>
       <c r="X258" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y258" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z258" s="3">
         <v>7</v>
@@ -30476,13 +30487,13 @@
     </row>
     <row r="259" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D259" s="12">
         <v>47.242431250000003</v>
@@ -30533,10 +30544,10 @@
         <v>50</v>
       </c>
       <c r="X259" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y259" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z259" s="3">
         <v>7</v>
@@ -30585,13 +30596,13 @@
     </row>
     <row r="260" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D260" s="12">
         <v>47.242431250000003</v>
@@ -30640,10 +30651,10 @@
         <v>50</v>
       </c>
       <c r="X260" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y260" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z260" s="3">
         <v>7</v>
@@ -30692,13 +30703,13 @@
     </row>
     <row r="261" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D261" s="12">
         <v>47.242431250000003</v>
@@ -30756,7 +30767,7 @@
         <v>385</v>
       </c>
       <c r="Y261" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z261" s="3">
         <v>7</v>
@@ -30805,13 +30816,13 @@
     </row>
     <row r="262" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D262" s="12">
         <v>47.242431250000003</v>
@@ -30866,10 +30877,10 @@
         <v>58</v>
       </c>
       <c r="X262" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y262" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z262" s="3">
         <v>7</v>
@@ -30918,13 +30929,13 @@
     </row>
     <row r="263" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D263" s="12">
         <v>47.242431250000003</v>
@@ -30979,10 +30990,10 @@
         <v>33</v>
       </c>
       <c r="X263" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y263" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z263" s="3">
         <v>7</v>
@@ -31031,13 +31042,13 @@
     </row>
     <row r="264" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D264" s="12">
         <v>47.242431250000003</v>
@@ -31092,10 +31103,10 @@
         <v>58</v>
       </c>
       <c r="X264" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y264" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z264" s="3">
         <v>7</v>
@@ -31144,13 +31155,13 @@
     </row>
     <row r="265" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D265" s="12">
         <v>47.242431250000003</v>
@@ -31208,7 +31219,7 @@
         <v>385</v>
       </c>
       <c r="Y265" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z265" s="3">
         <v>7</v>
@@ -31257,13 +31268,13 @@
     </row>
     <row r="266" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D266" s="12">
         <v>47.242431250000003</v>
@@ -31312,10 +31323,10 @@
         <v>33</v>
       </c>
       <c r="X266" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y266" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z266" s="3">
         <v>7</v>
@@ -31364,13 +31375,13 @@
     </row>
     <row r="267" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D267" s="12">
         <v>47.242431250000003</v>
@@ -31421,10 +31432,10 @@
         <v>38</v>
       </c>
       <c r="X267" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y267" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z267" s="3">
         <v>7</v>
@@ -31473,13 +31484,13 @@
     </row>
     <row r="268" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>360</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D268" s="12">
         <v>3.0733062499999999</v>
@@ -31534,7 +31545,7 @@
         <v>58</v>
       </c>
       <c r="X268" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y268" s="3" t="s">
         <v>386</v>
@@ -31586,13 +31597,13 @@
     </row>
     <row r="269" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>360</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D269" s="12">
         <v>3.0733062499999999</v>
@@ -31695,13 +31706,13 @@
     </row>
     <row r="270" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>360</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D270" s="12">
         <v>3.0733062499999999</v>
@@ -31756,7 +31767,7 @@
         <v>33</v>
       </c>
       <c r="X270" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y270" s="3" t="s">
         <v>386</v>
@@ -31808,13 +31819,13 @@
     </row>
     <row r="271" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>360</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D271" s="12">
         <v>3.0733062499999999</v>
@@ -31869,7 +31880,7 @@
         <v>33</v>
       </c>
       <c r="X271" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y271" s="3" t="s">
         <v>386</v>
@@ -31921,13 +31932,13 @@
     </row>
     <row r="272" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>360</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D272" s="12">
         <v>3.0733062499999999</v>
@@ -31936,7 +31947,7 @@
         <v>204</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G272" s="7">
         <v>1</v>
@@ -31957,7 +31968,7 @@
         <v>195</v>
       </c>
       <c r="M272" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N272" s="3"/>
       <c r="O272" s="3" t="s">
@@ -31978,7 +31989,7 @@
         <v>33</v>
       </c>
       <c r="X272" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y272" s="3" t="s">
         <v>386</v>
@@ -32030,13 +32041,13 @@
     </row>
     <row r="273" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>360</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D273" s="12">
         <v>3.0733062499999999</v>
@@ -32089,7 +32100,7 @@
         <v>383</v>
       </c>
       <c r="X273" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y273" s="3" t="s">
         <v>386</v>
@@ -32141,13 +32152,13 @@
     </row>
     <row r="274" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>360</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D274" s="12">
         <v>3.0733062499999999</v>
@@ -32200,7 +32211,7 @@
         <v>58</v>
       </c>
       <c r="X274" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y274" s="3" t="s">
         <v>386</v>
@@ -32252,13 +32263,13 @@
     </row>
     <row r="275" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>360</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D275" s="12">
         <v>3.0733062499999999</v>
@@ -32309,7 +32320,7 @@
         <v>33</v>
       </c>
       <c r="X275" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y275" s="3" t="s">
         <v>386</v>
@@ -32361,13 +32372,13 @@
     </row>
     <row r="276" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>360</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D276" s="12">
         <v>3.0733062499999999</v>
@@ -32420,7 +32431,7 @@
         <v>152</v>
       </c>
       <c r="X276" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y276" s="3" t="s">
         <v>386</v>
@@ -32472,13 +32483,13 @@
     </row>
     <row r="277" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>360</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D277" s="12">
         <v>3.0733062499999999</v>
@@ -32527,7 +32538,7 @@
         <v>50</v>
       </c>
       <c r="X277" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y277" s="3" t="s">
         <v>386</v>
@@ -32579,13 +32590,13 @@
     </row>
     <row r="278" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>360</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D278" s="12">
         <v>3.0733062499999999</v>
@@ -32636,7 +32647,7 @@
         <v>33</v>
       </c>
       <c r="X278" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y278" s="3" t="s">
         <v>386</v>
@@ -32688,13 +32699,13 @@
     </row>
     <row r="279" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>360</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D279" s="12">
         <v>3.0733062499999999</v>
@@ -32747,7 +32758,7 @@
         <v>33</v>
       </c>
       <c r="X279" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y279" s="3" t="s">
         <v>386</v>
@@ -32799,13 +32810,13 @@
     </row>
     <row r="280" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>360</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D280" s="12">
         <v>3.0733062499999999</v>
@@ -32860,7 +32871,7 @@
         <v>33</v>
       </c>
       <c r="X280" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y280" s="3" t="s">
         <v>386</v>
@@ -32912,13 +32923,13 @@
     </row>
     <row r="281" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>360</v>
       </c>
       <c r="C281" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D281" s="12">
         <v>3.0733062499999999</v>
@@ -33025,13 +33036,13 @@
     </row>
     <row r="282" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>360</v>
       </c>
       <c r="C282" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D282" s="12">
         <v>3.0733062499999999</v>
@@ -33082,7 +33093,7 @@
         <v>50</v>
       </c>
       <c r="X282" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y282" s="3" t="s">
         <v>386</v>
@@ -33134,13 +33145,13 @@
     </row>
     <row r="283" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>360</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D283" s="12">
         <v>3.0733062499999999</v>
@@ -33189,7 +33200,7 @@
         <v>50</v>
       </c>
       <c r="X283" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y283" s="3" t="s">
         <v>386</v>
@@ -33241,13 +33252,13 @@
     </row>
     <row r="284" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>360</v>
       </c>
       <c r="C284" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D284" s="12">
         <v>3.0733062499999999</v>
@@ -33300,7 +33311,7 @@
         <v>58</v>
       </c>
       <c r="X284" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y284" s="3" t="s">
         <v>386</v>
@@ -33352,13 +33363,13 @@
     </row>
     <row r="285" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>360</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D285" s="12">
         <v>3.0733062499999999</v>
@@ -33409,7 +33420,7 @@
         <v>67</v>
       </c>
       <c r="X285" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y285" s="3" t="s">
         <v>386</v>
@@ -33461,13 +33472,13 @@
     </row>
     <row r="286" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>360</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D286" s="12">
         <v>3.0733062499999999</v>
@@ -33574,13 +33585,13 @@
     </row>
     <row r="287" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>360</v>
       </c>
       <c r="C287" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D287" s="12">
         <v>3.0733062499999999</v>
@@ -33633,7 +33644,7 @@
         <v>58</v>
       </c>
       <c r="X287" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y287" s="3" t="s">
         <v>386</v>
@@ -33685,13 +33696,13 @@
     </row>
     <row r="288" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>364</v>
       </c>
       <c r="C288" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D288" s="12">
         <v>5.9998968750000001</v>
@@ -33747,7 +33758,7 @@
         <v>385</v>
       </c>
       <c r="Y288" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z288" s="3">
         <v>7</v>
@@ -33796,13 +33807,13 @@
     </row>
     <row r="289" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>364</v>
       </c>
       <c r="C289" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D289" s="12">
         <v>5.9998968750000001</v>
@@ -33856,7 +33867,7 @@
         <v>385</v>
       </c>
       <c r="Y289" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z289" s="3">
         <v>7</v>
@@ -33905,13 +33916,13 @@
     </row>
     <row r="290" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>364</v>
       </c>
       <c r="C290" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D290" s="12">
         <v>5.9998968750000001</v>
@@ -33969,7 +33980,7 @@
         <v>385</v>
       </c>
       <c r="Y290" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z290" s="3">
         <v>7</v>
@@ -34018,13 +34029,13 @@
     </row>
     <row r="291" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>364</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D291" s="12">
         <v>5.9998968750000001</v>
@@ -34077,10 +34088,10 @@
         <v>47</v>
       </c>
       <c r="X291" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y291" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z291" s="3">
         <v>7</v>
@@ -34129,13 +34140,13 @@
     </row>
     <row r="292" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>364</v>
       </c>
       <c r="C292" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D292" s="12">
         <v>5.9998968750000001</v>
@@ -34193,7 +34204,7 @@
         <v>385</v>
       </c>
       <c r="Y292" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z292" s="3">
         <v>7</v>
@@ -34242,13 +34253,13 @@
     </row>
     <row r="293" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>364</v>
       </c>
       <c r="C293" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D293" s="12">
         <v>5.9998968750000001</v>
@@ -34304,7 +34315,7 @@
         <v>385</v>
       </c>
       <c r="Y293" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z293" s="3">
         <v>7</v>
@@ -34353,13 +34364,13 @@
     </row>
     <row r="294" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>364</v>
       </c>
       <c r="C294" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D294" s="12">
         <v>5.9998968750000001</v>
@@ -34368,7 +34379,7 @@
         <v>204</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G294" s="7">
         <v>1</v>
@@ -34389,7 +34400,7 @@
         <v>195</v>
       </c>
       <c r="M294" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N294" s="3"/>
       <c r="O294" s="3" t="s">
@@ -34410,10 +34421,10 @@
         <v>33</v>
       </c>
       <c r="X294" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y294" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z294" s="3">
         <v>7</v>
@@ -34462,13 +34473,13 @@
     </row>
     <row r="295" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>364</v>
       </c>
       <c r="C295" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D295" s="12">
         <v>5.9998968750000001</v>
@@ -34521,10 +34532,10 @@
         <v>58</v>
       </c>
       <c r="X295" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y295" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z295" s="3">
         <v>7</v>
@@ -34573,13 +34584,13 @@
     </row>
     <row r="296" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>364</v>
       </c>
       <c r="C296" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D296" s="12">
         <v>5.9998968750000001</v>
@@ -34634,10 +34645,10 @@
         <v>33</v>
       </c>
       <c r="X296" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y296" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z296" s="3">
         <v>7</v>
@@ -34686,13 +34697,13 @@
     </row>
     <row r="297" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>364</v>
       </c>
       <c r="C297" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D297" s="12">
         <v>5.9998968750000001</v>
@@ -34743,10 +34754,10 @@
         <v>50</v>
       </c>
       <c r="X297" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y297" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z297" s="3">
         <v>7</v>
@@ -34795,13 +34806,13 @@
     </row>
     <row r="298" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>364</v>
       </c>
       <c r="C298" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D298" s="12">
         <v>5.9998968750000001</v>
@@ -34852,10 +34863,10 @@
         <v>38</v>
       </c>
       <c r="X298" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y298" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z298" s="3">
         <v>7</v>
@@ -34904,13 +34915,13 @@
     </row>
     <row r="299" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>364</v>
       </c>
       <c r="C299" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D299" s="12">
         <v>5.9998968750000001</v>
@@ -34963,10 +34974,10 @@
         <v>33</v>
       </c>
       <c r="X299" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y299" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z299" s="3">
         <v>7</v>
@@ -35015,13 +35026,13 @@
     </row>
     <row r="300" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>364</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D300" s="12">
         <v>5.9998968750000001</v>
@@ -35072,10 +35083,10 @@
         <v>33</v>
       </c>
       <c r="X300" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y300" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z300" s="3">
         <v>7</v>
@@ -35124,13 +35135,13 @@
     </row>
     <row r="301" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>364</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D301" s="12">
         <v>5.9998968750000001</v>
@@ -35181,10 +35192,10 @@
         <v>50</v>
       </c>
       <c r="X301" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y301" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z301" s="3">
         <v>7</v>
@@ -35233,13 +35244,13 @@
     </row>
     <row r="302" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>364</v>
       </c>
       <c r="C302" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D302" s="12">
         <v>5.9998968750000001</v>
@@ -35297,7 +35308,7 @@
         <v>385</v>
       </c>
       <c r="Y302" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z302" s="3">
         <v>7</v>
@@ -35346,13 +35357,13 @@
     </row>
     <row r="303" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>364</v>
       </c>
       <c r="C303" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D303" s="12">
         <v>5.9998968750000001</v>
@@ -35408,7 +35419,7 @@
         <v>385</v>
       </c>
       <c r="Y303" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z303" s="3">
         <v>7</v>
@@ -35457,13 +35468,13 @@
     </row>
     <row r="304" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>364</v>
       </c>
       <c r="C304" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D304" s="12">
         <v>5.9998968750000001</v>
@@ -35521,7 +35532,7 @@
         <v>385</v>
       </c>
       <c r="Y304" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z304" s="3">
         <v>7</v>
@@ -35570,13 +35581,13 @@
     </row>
     <row r="305" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>364</v>
       </c>
       <c r="C305" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D305" s="12">
         <v>5.9998968750000001</v>
@@ -35627,10 +35638,10 @@
         <v>67</v>
       </c>
       <c r="X305" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y305" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z305" s="3">
         <v>7</v>
@@ -35679,13 +35690,13 @@
     </row>
     <row r="306" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>364</v>
       </c>
       <c r="C306" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D306" s="12">
         <v>5.9998968750000001</v>
@@ -35736,10 +35747,10 @@
         <v>58</v>
       </c>
       <c r="X306" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y306" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z306" s="3">
         <v>7</v>
@@ -35788,13 +35799,13 @@
     </row>
     <row r="307" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>364</v>
       </c>
       <c r="C307" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D307" s="12">
         <v>5.9998968750000001</v>
@@ -35847,10 +35858,10 @@
         <v>58</v>
       </c>
       <c r="X307" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y307" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z307" s="3">
         <v>7</v>
@@ -35899,13 +35910,13 @@
     </row>
     <row r="308" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>364</v>
       </c>
       <c r="C308" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D308" s="12">
         <v>5.9998968750000001</v>
@@ -35958,10 +35969,10 @@
         <v>47</v>
       </c>
       <c r="X308" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y308" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z308" s="3">
         <v>7</v>
@@ -36010,13 +36021,13 @@
     </row>
     <row r="309" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C309" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D309" s="12">
         <v>33.632626563000002</v>
@@ -36119,13 +36130,13 @@
     </row>
     <row r="310" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D310" s="12">
         <v>33.632626563000002</v>
@@ -36232,13 +36243,13 @@
     </row>
     <row r="311" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C311" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D311" s="12">
         <v>33.632626563000002</v>
@@ -36291,7 +36302,7 @@
         <v>47</v>
       </c>
       <c r="X311" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y311" s="3" t="s">
         <v>386</v>
@@ -36343,13 +36354,13 @@
     </row>
     <row r="312" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C312" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D312" s="12">
         <v>33.632626563000002</v>
@@ -36458,13 +36469,13 @@
     </row>
     <row r="313" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C313" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D313" s="12">
         <v>33.632626563000002</v>
@@ -36571,13 +36582,13 @@
     </row>
     <row r="314" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C314" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D314" s="12">
         <v>33.632626563000002</v>
@@ -36682,13 +36693,13 @@
     </row>
     <row r="315" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C315" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D315" s="12">
         <v>33.632626563000002</v>
@@ -36743,7 +36754,7 @@
         <v>33</v>
       </c>
       <c r="X315" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y315" s="3" t="s">
         <v>386</v>
@@ -36795,13 +36806,13 @@
     </row>
     <row r="316" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C316" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D316" s="12">
         <v>33.632626563000002</v>
@@ -36910,13 +36921,13 @@
     </row>
     <row r="317" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C317" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D317" s="12">
         <v>33.632626563000002</v>
@@ -37023,13 +37034,13 @@
     </row>
     <row r="318" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C318" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D318" s="12">
         <v>33.632626563000002</v>
@@ -37084,7 +37095,7 @@
         <v>58</v>
       </c>
       <c r="X318" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y318" s="3" t="s">
         <v>386</v>
@@ -37136,13 +37147,13 @@
     </row>
     <row r="319" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C319" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D319" s="12">
         <v>33.632626563000002</v>
@@ -37249,13 +37260,13 @@
     </row>
     <row r="320" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C320" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D320" s="12">
         <v>33.632626563000002</v>
@@ -37310,7 +37321,7 @@
         <v>33</v>
       </c>
       <c r="X320" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y320" s="3" t="s">
         <v>386</v>
@@ -37362,13 +37373,13 @@
     </row>
     <row r="321" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C321" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D321" s="12">
         <v>33.632626563000002</v>
@@ -37423,7 +37434,7 @@
         <v>33</v>
       </c>
       <c r="X321" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y321" s="3" t="s">
         <v>386</v>
@@ -37475,13 +37486,13 @@
     </row>
     <row r="322" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C322" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D322" s="12">
         <v>33.632626563000002</v>
@@ -37532,7 +37543,7 @@
         <v>50</v>
       </c>
       <c r="X322" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y322" s="3" t="s">
         <v>386</v>
@@ -37584,13 +37595,13 @@
     </row>
     <row r="323" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C323" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D323" s="12">
         <v>33.632626563000002</v>
@@ -37643,7 +37654,7 @@
         <v>152</v>
       </c>
       <c r="X323" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y323" s="3" t="s">
         <v>386</v>
@@ -37695,13 +37706,13 @@
     </row>
     <row r="324" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C324" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D324" s="12">
         <v>33.632626563000002</v>
@@ -37806,13 +37817,13 @@
     </row>
     <row r="325" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C325" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D325" s="12">
         <v>33.632626563000002</v>
@@ -37921,13 +37932,13 @@
     </row>
     <row r="326" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C326" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D326" s="12">
         <v>33.632626563000002</v>
@@ -38030,13 +38041,13 @@
     </row>
     <row r="327" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C327" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D327" s="12">
         <v>33.632626563000002</v>
@@ -38143,13 +38154,13 @@
     </row>
     <row r="328" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C328" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D328" s="12">
         <v>33.632626563000002</v>
@@ -38254,13 +38265,13 @@
     </row>
     <row r="329" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C329" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D329" s="12">
         <v>33.632626563000002</v>
@@ -38365,13 +38376,13 @@
     </row>
     <row r="330" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C330" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D330" s="12">
         <v>33.632626563000002</v>
@@ -38422,7 +38433,7 @@
         <v>33</v>
       </c>
       <c r="X330" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y330" s="3" t="s">
         <v>386</v>
@@ -38474,13 +38485,13 @@
     </row>
     <row r="331" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C331" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D331" s="12">
         <v>33.632626563000002</v>
@@ -38533,7 +38544,7 @@
         <v>50</v>
       </c>
       <c r="X331" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y331" s="3" t="s">
         <v>386</v>
@@ -38585,13 +38596,13 @@
     </row>
     <row r="332" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C332" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D332" s="12">
         <v>33.632626563000002</v>
@@ -38644,7 +38655,7 @@
         <v>33</v>
       </c>
       <c r="X332" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y332" s="3" t="s">
         <v>386</v>
@@ -38696,13 +38707,13 @@
     </row>
     <row r="333" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C333" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D333" s="12">
         <v>33.632626563000002</v>
@@ -38759,7 +38770,7 @@
         <v>58</v>
       </c>
       <c r="X333" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y333" s="3" t="s">
         <v>386</v>
@@ -38811,13 +38822,13 @@
     </row>
     <row r="334" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C334" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D334" s="12">
         <v>33.632626563000002</v>
@@ -38922,13 +38933,13 @@
     </row>
     <row r="335" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C335" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D335" s="12">
         <v>33.632626563000002</v>
@@ -38981,7 +38992,7 @@
         <v>33</v>
       </c>
       <c r="X335" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y335" s="3" t="s">
         <v>386</v>
@@ -39033,13 +39044,13 @@
     </row>
     <row r="336" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C336" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D336" s="12">
         <v>33.632626563000002</v>
@@ -39092,7 +39103,7 @@
         <v>33</v>
       </c>
       <c r="X336" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y336" s="3" t="s">
         <v>386</v>
@@ -39144,13 +39155,13 @@
     </row>
     <row r="337" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C337" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D337" s="12">
         <v>33.632626563000002</v>
@@ -39257,13 +39268,13 @@
     </row>
     <row r="338" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C338" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D338" s="12">
         <v>33.632626563000002</v>
@@ -39368,13 +39379,13 @@
     </row>
     <row r="339" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C339" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D339" s="12">
         <v>33.632626563000002</v>
@@ -39481,13 +39492,13 @@
     </row>
     <row r="340" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C340" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D340" s="12">
         <v>33.632626563000002</v>
@@ -39594,13 +39605,13 @@
     </row>
     <row r="341" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C341" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D341" s="12">
         <v>33.632626563000002</v>
@@ -39707,13 +39718,13 @@
     </row>
     <row r="342" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C342" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D342" s="12">
         <v>33.632626563000002</v>
@@ -39820,13 +39831,13 @@
     </row>
     <row r="343" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C343" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D343" s="12">
         <v>33.632626563000002</v>
@@ -39877,7 +39888,7 @@
         <v>67</v>
       </c>
       <c r="X343" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y343" s="3" t="s">
         <v>386</v>
@@ -39929,13 +39940,13 @@
     </row>
     <row r="344" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C344" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D344" s="12">
         <v>33.632626563000002</v>
@@ -39988,7 +39999,7 @@
         <v>58</v>
       </c>
       <c r="X344" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y344" s="3" t="s">
         <v>386</v>
@@ -40040,13 +40051,13 @@
     </row>
     <row r="345" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C345" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D345" s="12">
         <v>33.632626563000002</v>
@@ -40153,13 +40164,13 @@
     </row>
     <row r="346" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C346" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D346" s="12">
         <v>33.632626563000002</v>
@@ -40212,7 +40223,7 @@
         <v>58</v>
       </c>
       <c r="X346" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y346" s="3" t="s">
         <v>386</v>
@@ -40264,13 +40275,13 @@
     </row>
     <row r="347" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C347" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D347" s="12">
         <v>33.632626563000002</v>
@@ -40321,7 +40332,7 @@
         <v>38</v>
       </c>
       <c r="X347" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y347" s="3" t="s">
         <v>386</v>
@@ -40373,13 +40384,13 @@
     </row>
     <row r="348" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C348" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D348" s="12">
         <v>33.632626563000002</v>
@@ -40430,7 +40441,7 @@
         <v>50</v>
       </c>
       <c r="X348" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y348" s="3" t="s">
         <v>386</v>
@@ -40482,13 +40493,13 @@
     </row>
     <row r="349" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C349" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D349" s="12">
         <v>33.632626563000002</v>
@@ -40593,13 +40604,13 @@
     </row>
     <row r="350" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C350" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D350" s="12">
         <v>33.632626563000002</v>
@@ -40706,13 +40717,13 @@
     </row>
     <row r="351" spans="1:41" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C351" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D351" s="12">
         <v>33.632626563000002</v>
@@ -40767,7 +40778,7 @@
         <v>47</v>
       </c>
       <c r="X351" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y351" s="3" t="s">
         <v>386</v>
@@ -44059,7 +44070,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO351" xr:uid="{1F2096FE-7439-433C-A9BF-23185AD0F7B1}"/>
-  <sortState ref="A2:AN351">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AN351">
     <sortCondition ref="B2:B351"/>
     <sortCondition ref="F2:F351"/>
   </sortState>
